--- a/crowd_certain/outputs/weight_strength_relation/mushroom/weight_strength_relation.xlsx
+++ b/crowd_certain/outputs/weight_strength_relation/mushroom/weight_strength_relation.xlsx
@@ -476,10 +476,10 @@
         <v>0.4098461538461539</v>
       </c>
       <c r="D2" t="n">
-        <v>1.067944483982438</v>
+        <v>1.068436924282015</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00491090676638329</v>
+        <v>0.004911561765477959</v>
       </c>
       <c r="F2" t="n">
         <v>0.9995130821850029</v>
@@ -496,10 +496,10 @@
         <v>0.4233846153846154</v>
       </c>
       <c r="D3" t="n">
-        <v>1.041063796643669</v>
+        <v>1.041082252532498</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04798539450922949</v>
+        <v>0.0466368195462401</v>
       </c>
       <c r="F3" t="n">
         <v>0.9999155008220464</v>
@@ -516,10 +516,10 @@
         <v>0.4627692307692308</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8724697628914463</v>
+        <v>0.8727332866680846</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1070374947921918</v>
+        <v>0.1070517710685537</v>
       </c>
       <c r="F4" t="n">
         <v>0.9997771696248425</v>
@@ -536,10 +536,10 @@
         <v>0.4898461538461538</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7222702532140244</v>
+        <v>0.7226032995335685</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2768709729398944</v>
+        <v>0.276907900995189</v>
       </c>
       <c r="F5" t="n">
         <v>0.9998393775579042</v>
@@ -556,10 +556,10 @@
         <v>0.5181538461538462</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8087891143948103</v>
+        <v>0.8018908945232304</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2274939700628229</v>
+        <v>0.2280541315483521</v>
       </c>
       <c r="F6" t="n">
         <v>0.9997870057815246</v>
@@ -576,10 +576,10 @@
         <v>0.5113846153846154</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7491511768755239</v>
+        <v>0.7494966182683133</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7442763759308628</v>
+        <v>0.7443756448389504</v>
       </c>
       <c r="F7" t="n">
         <v>1.000037052707707</v>
@@ -596,10 +596,10 @@
         <v>0.512</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8396520785252934</v>
+        <v>0.8400392508243132</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9589726175047373</v>
+        <v>0.9591005218259062</v>
       </c>
       <c r="F8" t="n">
         <v>0.9996527150491837</v>
@@ -616,10 +616,10 @@
         <v>0.5329230769230769</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8773066217241797</v>
+        <v>0.8779887670292905</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9583160867926905</v>
+        <v>0.9587314673657915</v>
       </c>
       <c r="F9" t="n">
         <v>1.000101476842726</v>
@@ -636,10 +636,10 @@
         <v>0.5606153846153846</v>
       </c>
       <c r="D10" t="n">
-        <v>1.046104459252619</v>
+        <v>1.046586828889832</v>
       </c>
       <c r="E10" t="n">
-        <v>1.305287256944929</v>
+        <v>1.305461351468049</v>
       </c>
       <c r="F10" t="n">
         <v>0.999757433523342</v>
@@ -656,10 +656,10 @@
         <v>0.6258461538461538</v>
       </c>
       <c r="D11" t="n">
-        <v>1.071577964559529</v>
+        <v>1.07051922024726</v>
       </c>
       <c r="E11" t="n">
-        <v>1.369601345896547</v>
+        <v>1.36778317256613</v>
       </c>
       <c r="F11" t="n">
         <v>1.000103611591198</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0.638060484538402</v>
+        <v>0.6380604845384019</v>
       </c>
       <c r="B12" t="n">
         <v>0.9704615384615385</v>
@@ -676,10 +676,10 @@
         <v>0.6326153846153846</v>
       </c>
       <c r="D12" t="n">
-        <v>1.085316886986227</v>
+        <v>1.085817337881361</v>
       </c>
       <c r="E12" t="n">
-        <v>1.395265567373854</v>
+        <v>1.395451662880637</v>
       </c>
       <c r="F12" t="n">
         <v>1.00018499524107</v>
@@ -696,10 +696,10 @@
         <v>0.6387692307692308</v>
       </c>
       <c r="D13" t="n">
-        <v>1.063824758802943</v>
+        <v>1.064392391594276</v>
       </c>
       <c r="E13" t="n">
-        <v>1.363245809946933</v>
+        <v>1.364387745422182</v>
       </c>
       <c r="F13" t="n">
         <v>1.000181927083453</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>0.6503828814202762</v>
+        <v>0.6503828814202761</v>
       </c>
       <c r="B14" t="n">
         <v>0.9643076923076923</v>
@@ -716,10 +716,10 @@
         <v>0.6307692307692307</v>
       </c>
       <c r="D14" t="n">
-        <v>1.082410418953807</v>
+        <v>1.082909529646328</v>
       </c>
       <c r="E14" t="n">
-        <v>1.385093570686751</v>
+        <v>1.385278309489174</v>
       </c>
       <c r="F14" t="n">
         <v>0.9999865601515504</v>
@@ -736,10 +736,10 @@
         <v>0.6738461538461539</v>
       </c>
       <c r="D15" t="n">
-        <v>1.08261330774133</v>
+        <v>1.082850435956414</v>
       </c>
       <c r="E15" t="n">
-        <v>1.387122359146569</v>
+        <v>1.386969685994254</v>
       </c>
       <c r="F15" t="n">
         <v>1.000141216283797</v>
@@ -756,10 +756,10 @@
         <v>0.6996923076923077</v>
       </c>
       <c r="D16" t="n">
-        <v>1.096662296799546</v>
+        <v>1.097480809268914</v>
       </c>
       <c r="E16" t="n">
-        <v>1.406081803184485</v>
+        <v>1.405779737926417</v>
       </c>
       <c r="F16" t="n">
         <v>1.000180236884618</v>
@@ -776,10 +776,10 @@
         <v>0.7095384615384616</v>
       </c>
       <c r="D17" t="n">
-        <v>1.092223243382248</v>
+        <v>1.092233264636301</v>
       </c>
       <c r="E17" t="n">
-        <v>1.403742817108704</v>
+        <v>1.403294025897283</v>
       </c>
       <c r="F17" t="n">
         <v>0.9999903598752711</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>0.8022805061070414</v>
+        <v>0.8022805061070413</v>
       </c>
       <c r="B18" t="n">
         <v>0.9753846153846154</v>
@@ -796,10 +796,10 @@
         <v>0.8147692307692308</v>
       </c>
       <c r="D18" t="n">
-        <v>1.100277460873889</v>
+        <v>1.100784810245113</v>
       </c>
       <c r="E18" t="n">
-        <v>1.414880450298408</v>
+        <v>1.415069161967779</v>
       </c>
       <c r="F18" t="n">
         <v>1.000211902298778</v>
@@ -816,10 +816,10 @@
         <v>0.8092307692307692</v>
       </c>
       <c r="D19" t="n">
-        <v>1.09617353675141</v>
+        <v>1.096678993760572</v>
       </c>
       <c r="E19" t="n">
-        <v>1.409199123762568</v>
+        <v>1.409387077677025</v>
       </c>
       <c r="F19" t="n">
         <v>1.000200617209804</v>
@@ -836,10 +836,10 @@
         <v>0.8166153846153846</v>
       </c>
       <c r="D20" t="n">
-        <v>1.104545772992451</v>
+        <v>1.105345432149485</v>
       </c>
       <c r="E20" t="n">
-        <v>1.42079604921987</v>
+        <v>1.421359652391098</v>
       </c>
       <c r="F20" t="n">
         <v>1.000213269339615</v>
@@ -856,10 +856,10 @@
         <v>0.9316923076923077</v>
       </c>
       <c r="D21" t="n">
-        <v>1.09962260465262</v>
+        <v>1.100129652062835</v>
       </c>
       <c r="E21" t="n">
-        <v>1.413820027131574</v>
+        <v>1.414008597365515</v>
       </c>
       <c r="F21" t="n">
         <v>1.000224489946569</v>

--- a/crowd_certain/outputs/weight_strength_relation/mushroom/weight_strength_relation.xlsx
+++ b/crowd_certain/outputs/weight_strength_relation/mushroom/weight_strength_relation.xlsx
@@ -476,10 +476,10 @@
         <v>0.4098461538461539</v>
       </c>
       <c r="D2" t="n">
-        <v>1.068436924282015</v>
+        <v>1.067944483982438</v>
       </c>
       <c r="E2" t="n">
-        <v>0.004911561765477959</v>
+        <v>0.00491090676638329</v>
       </c>
       <c r="F2" t="n">
         <v>0.9995130821850029</v>
@@ -496,10 +496,10 @@
         <v>0.4233846153846154</v>
       </c>
       <c r="D3" t="n">
-        <v>1.041082252532498</v>
+        <v>1.041063796643669</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0466368195462401</v>
+        <v>0.04798539450922949</v>
       </c>
       <c r="F3" t="n">
         <v>0.9999155008220464</v>
@@ -516,10 +516,10 @@
         <v>0.4627692307692308</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8727332866680846</v>
+        <v>0.8724697628914463</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1070517710685537</v>
+        <v>0.1070374947921918</v>
       </c>
       <c r="F4" t="n">
         <v>0.9997771696248425</v>
@@ -536,10 +536,10 @@
         <v>0.4898461538461538</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7226032995335685</v>
+        <v>0.7222702532140244</v>
       </c>
       <c r="E5" t="n">
-        <v>0.276907900995189</v>
+        <v>0.2768709729398944</v>
       </c>
       <c r="F5" t="n">
         <v>0.9998393775579042</v>
@@ -556,10 +556,10 @@
         <v>0.5181538461538462</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8018908945232304</v>
+        <v>0.8087891143948103</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2280541315483521</v>
+        <v>0.2274939700628229</v>
       </c>
       <c r="F6" t="n">
         <v>0.9997870057815246</v>
@@ -576,10 +576,10 @@
         <v>0.5113846153846154</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7494966182683133</v>
+        <v>0.7491511768755239</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7443756448389504</v>
+        <v>0.7442763759308628</v>
       </c>
       <c r="F7" t="n">
         <v>1.000037052707707</v>
@@ -596,10 +596,10 @@
         <v>0.512</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8400392508243132</v>
+        <v>0.8396520785252934</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9591005218259062</v>
+        <v>0.9589726175047373</v>
       </c>
       <c r="F8" t="n">
         <v>0.9996527150491837</v>
@@ -616,10 +616,10 @@
         <v>0.5329230769230769</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8779887670292905</v>
+        <v>0.8773066217241797</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9587314673657915</v>
+        <v>0.9583160867926905</v>
       </c>
       <c r="F9" t="n">
         <v>1.000101476842726</v>
@@ -636,10 +636,10 @@
         <v>0.5606153846153846</v>
       </c>
       <c r="D10" t="n">
-        <v>1.046586828889832</v>
+        <v>1.046104459252619</v>
       </c>
       <c r="E10" t="n">
-        <v>1.305461351468049</v>
+        <v>1.305287256944929</v>
       </c>
       <c r="F10" t="n">
         <v>0.999757433523342</v>
@@ -656,10 +656,10 @@
         <v>0.6258461538461538</v>
       </c>
       <c r="D11" t="n">
-        <v>1.07051922024726</v>
+        <v>1.071577964559529</v>
       </c>
       <c r="E11" t="n">
-        <v>1.36778317256613</v>
+        <v>1.369601345896547</v>
       </c>
       <c r="F11" t="n">
         <v>1.000103611591198</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0.6380604845384019</v>
+        <v>0.638060484538402</v>
       </c>
       <c r="B12" t="n">
         <v>0.9704615384615385</v>
@@ -676,10 +676,10 @@
         <v>0.6326153846153846</v>
       </c>
       <c r="D12" t="n">
-        <v>1.085817337881361</v>
+        <v>1.085316886986227</v>
       </c>
       <c r="E12" t="n">
-        <v>1.395451662880637</v>
+        <v>1.395265567373854</v>
       </c>
       <c r="F12" t="n">
         <v>1.00018499524107</v>
@@ -696,10 +696,10 @@
         <v>0.6387692307692308</v>
       </c>
       <c r="D13" t="n">
-        <v>1.064392391594276</v>
+        <v>1.063824758802943</v>
       </c>
       <c r="E13" t="n">
-        <v>1.364387745422182</v>
+        <v>1.363245809946933</v>
       </c>
       <c r="F13" t="n">
         <v>1.000181927083453</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>0.6503828814202761</v>
+        <v>0.6503828814202762</v>
       </c>
       <c r="B14" t="n">
         <v>0.9643076923076923</v>
@@ -716,10 +716,10 @@
         <v>0.6307692307692307</v>
       </c>
       <c r="D14" t="n">
-        <v>1.082909529646328</v>
+        <v>1.082410418953807</v>
       </c>
       <c r="E14" t="n">
-        <v>1.385278309489174</v>
+        <v>1.385093570686751</v>
       </c>
       <c r="F14" t="n">
         <v>0.9999865601515504</v>
@@ -736,10 +736,10 @@
         <v>0.6738461538461539</v>
       </c>
       <c r="D15" t="n">
-        <v>1.082850435956414</v>
+        <v>1.08261330774133</v>
       </c>
       <c r="E15" t="n">
-        <v>1.386969685994254</v>
+        <v>1.387122359146569</v>
       </c>
       <c r="F15" t="n">
         <v>1.000141216283797</v>
@@ -756,10 +756,10 @@
         <v>0.6996923076923077</v>
       </c>
       <c r="D16" t="n">
-        <v>1.097480809268914</v>
+        <v>1.096662296799546</v>
       </c>
       <c r="E16" t="n">
-        <v>1.405779737926417</v>
+        <v>1.406081803184485</v>
       </c>
       <c r="F16" t="n">
         <v>1.000180236884618</v>
@@ -776,10 +776,10 @@
         <v>0.7095384615384616</v>
       </c>
       <c r="D17" t="n">
-        <v>1.092233264636301</v>
+        <v>1.092223243382248</v>
       </c>
       <c r="E17" t="n">
-        <v>1.403294025897283</v>
+        <v>1.403742817108704</v>
       </c>
       <c r="F17" t="n">
         <v>0.9999903598752711</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>0.8022805061070413</v>
+        <v>0.8022805061070414</v>
       </c>
       <c r="B18" t="n">
         <v>0.9753846153846154</v>
@@ -796,10 +796,10 @@
         <v>0.8147692307692308</v>
       </c>
       <c r="D18" t="n">
-        <v>1.100784810245113</v>
+        <v>1.100277460873889</v>
       </c>
       <c r="E18" t="n">
-        <v>1.415069161967779</v>
+        <v>1.414880450298408</v>
       </c>
       <c r="F18" t="n">
         <v>1.000211902298778</v>
@@ -816,10 +816,10 @@
         <v>0.8092307692307692</v>
       </c>
       <c r="D19" t="n">
-        <v>1.096678993760572</v>
+        <v>1.09617353675141</v>
       </c>
       <c r="E19" t="n">
-        <v>1.409387077677025</v>
+        <v>1.409199123762568</v>
       </c>
       <c r="F19" t="n">
         <v>1.000200617209804</v>
@@ -836,10 +836,10 @@
         <v>0.8166153846153846</v>
       </c>
       <c r="D20" t="n">
-        <v>1.105345432149485</v>
+        <v>1.104545772992451</v>
       </c>
       <c r="E20" t="n">
-        <v>1.421359652391098</v>
+        <v>1.42079604921987</v>
       </c>
       <c r="F20" t="n">
         <v>1.000213269339615</v>
@@ -856,10 +856,10 @@
         <v>0.9316923076923077</v>
       </c>
       <c r="D21" t="n">
-        <v>1.100129652062835</v>
+        <v>1.09962260465262</v>
       </c>
       <c r="E21" t="n">
-        <v>1.414008597365515</v>
+        <v>1.413820027131574</v>
       </c>
       <c r="F21" t="n">
         <v>1.000224489946569</v>

--- a/crowd_certain/outputs/weight_strength_relation/mushroom/weight_strength_relation.xlsx
+++ b/crowd_certain/outputs/weight_strength_relation/mushroom/weight_strength_relation.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>proposed_penalized</t>
+          <t>Crowd-Certain</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/crowd_certain/outputs/weight_strength_relation/mushroom/weight_strength_relation.xlsx
+++ b/crowd_certain/outputs/weight_strength_relation/mushroom/weight_strength_relation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>labelers_strength</t>
+          <t>workers_strength</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -449,420 +449,115 @@
           <t>accuracy-test</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>proposed</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Crowd-Certain</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Tao</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0.400068624890407</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06092307692307692</v>
+        <v>0.05415384615384616</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4098461538461539</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.068436924282015</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.004911561765477959</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9995130821850029</v>
+        <v>0.4092307692307692</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0.4164325559187557</v>
+        <v>0.4554031568612787</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1113846153846154</v>
+        <v>0.1132307692307692</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4233846153846154</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.041082252532498</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0466368195462401</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9999155008220464</v>
+        <v>0.4627692307692308</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0.4554031568612787</v>
+        <v>0.4880535344902678</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1458461538461538</v>
+        <v>0.208</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4627692307692308</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8727332866680846</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1070517710685537</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9997771696248425</v>
+        <v>0.5187692307692308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0.4842321631571403</v>
+        <v>0.5117561268266025</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4492307692307692</v>
+        <v>0.6904615384615385</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4898461538461538</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7226032995335685</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.276907900995189</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9998393775579042</v>
+        <v>0.5107692307692308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0.4880535344902678</v>
+        <v>0.5813995435791038</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3175384615384615</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5181538461538462</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8018908945232304</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.2280541315483521</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9997870057815246</v>
+        <v>0.5612307692307692</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0.5117561268266025</v>
+        <v>0.6073364362258287</v>
       </c>
       <c r="B7" t="n">
-        <v>0.648</v>
+        <v>0.9698461538461538</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5113846153846154</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.7494966182683133</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.7443756448389504</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.000037052707707</v>
+        <v>0.6270769230769231</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0.5188608934509273</v>
+        <v>0.6380604845384019</v>
       </c>
       <c r="B8" t="n">
-        <v>0.812923076923077</v>
+        <v>0.9606153846153846</v>
       </c>
       <c r="C8" t="n">
-        <v>0.512</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.8400392508243132</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9591005218259062</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.9996527150491837</v>
+        <v>0.6332307692307693</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0.5226713498389105</v>
+        <v>0.6502132028215444</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8535384615384616</v>
+        <v>0.9501538461538461</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5329230769230769</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.8779887670292905</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.9587314673657915</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.000101476842726</v>
+        <v>0.6381538461538462</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0.5813995435791038</v>
+        <v>0.7232900404020142</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9483076923076923</v>
+        <v>0.9772307692307692</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5606153846153846</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.046586828889832</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.305461351468049</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.999757433523342</v>
+        <v>0.7009230769230769</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>0.6073364362258287</v>
+        <v>0.8321946960652948</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9796923076923076</v>
+        <v>0.9883076923076923</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6258461538461538</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.07051922024726</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.36778317256613</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.000103611591198</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>0.6380604845384019</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9704615384615385</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6326153846153846</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.085817337881361</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.395451662880637</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.00018499524107</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>0.6502132028215444</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9415384615384615</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6387692307692308</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.064392391594276</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.364387745422182</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.000181927083453</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>0.6503828814202761</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9643076923076923</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.6307692307692307</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.082909529646328</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.385278309489174</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.9999865601515504</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>0.6515167086419769</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9686153846153847</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.6738461538461539</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.082850435956414</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.386969685994254</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.000141216283797</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>0.7232900404020142</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9870769230769231</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.6996923076923077</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.097480809268914</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.405779737926417</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.000180236884618</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>0.735213897067451</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9858461538461538</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.7095384615384616</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.092233264636301</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.403294025897283</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.9999903598752711</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>0.8022805061070413</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.9753846153846154</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8147692307692308</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.100784810245113</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.415069161967779</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.000211902298778</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>0.8111317002380557</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9870769230769231</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8092307692307692</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.096678993760572</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.409387077677025</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.000200617209804</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>0.8321946960652948</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9895384615384616</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8166153846153846</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.105345432149485</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.421359652391098</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.000213269339615</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>0.9268704618345672</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9809230769230769</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9316923076923077</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.100129652062835</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.414008597365515</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.000224489946569</v>
+        <v>0.8153846153846154</v>
       </c>
     </row>
   </sheetData>
